--- a/src/test/resources/excel/read/simpleRead.xlsx
+++ b/src/test/resources/excel/read/simpleRead.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F598DE8-12E0-6C4D-851C-CF55E89AF55F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{194029A0-9911-B247-9B84-203BD35F1BE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21440" yWindow="4360" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21440" yWindow="4360" windowWidth="22260" windowHeight="12640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,6 +48,14 @@
   </si>
   <si>
     <t>建筑工程学院-土木工程2班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑工程学院-土木工程3班</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -374,8 +383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -421,4 +430,45 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87A4D47F-D47C-D044-B22B-2843A5871C79}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/excel/read/simpleRead.xlsx
+++ b/src/test/resources/excel/read/simpleRead.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{194029A0-9911-B247-9B84-203BD35F1BE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{114A6EDC-7D8C-8F48-8DE5-F5D9E3BE836F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21440" yWindow="4360" windowWidth="22260" windowHeight="12640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16140" yWindow="4360" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -383,8 +383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="A1:C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -436,8 +436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87A4D47F-D47C-D044-B22B-2843A5871C79}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
